--- a/datafile.xlsx
+++ b/datafile.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -520,14 +520,26 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>QGanIQOJcLkOWGe</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>QGanIQOJcLkOWGe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>n3rgw5HVJSgSGPa</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n3rgw5HVJSgSGPa1</t>
         </is>
       </c>
     </row>

--- a/datafile.xlsx
+++ b/datafile.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -532,14 +532,86 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>n3rgw5HVJSgSGPa</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>n3rgw5HVJSgSGPa1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>SuSxdWP8fvIbhbb</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>SuSxdWP8fvIbhbb1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>CLrSrCKutx0g3pl</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>CLrSrCKutx0g3pl1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>yUSTPbBQkuRCiUn</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>yUSTPbBQkuRCiUn1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>HXOl88BaekFWbOO</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>HXOl88BaekFWbOO1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>YO0wCzy2xOEgHep</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>YO0wCzy2xOEgHep1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mn7IdJFy2rd3Zg9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mn7IdJFy2rd3Zg91</t>
         </is>
       </c>
     </row>

--- a/datafile.xlsx
+++ b/datafile.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -604,14 +604,134 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>Mn7IdJFy2rd3Zg9</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>Mn7IdJFy2rd3Zg91</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>7B107MTi5r9ruUa</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>7B107MTi5r9ruUa1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>X1yX49GUja8dYSZ</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>X1yX49GUja8dYSZ1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>RFUie0qtfhjyid2</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>RFUie0qtfhjyid21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>woXLnapDtyU5wLo</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>woXLnapDtyU5wLo1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>sy8CglsNBBhkwn7</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>sy8CglsNBBhkwn71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>VEpLJRLgcigTiTs</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>VEpLJRLgcigTiTs1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>lCz2Ko2yJ0K8sGo</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>lCz2Ko2yJ0K8sGo1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>aSl1OqC304OA8Jq</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>aSl1OqC304OA8Jq1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>66Ntcuxk3vOLhBC</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>66Ntcuxk3vOLhBC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HbEH5zjCAFMCHED</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HbEH5zjCAFMCHED1</t>
         </is>
       </c>
     </row>
